--- a/TAP_POM_Framework/data/TC0049.xlsx
+++ b/TAP_POM_Framework/data/TC0049.xlsx
@@ -27,7 +27,7 @@
     <t>pwd</t>
   </si>
   <si>
-    <t>app_admin@ltts.com</t>
+    <t>sys_admin@ltts.com</t>
   </si>
   <si>
     <t>Rajravi@1</t>
@@ -362,13 +362,10 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="24.28515625" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
